--- a/Task1_Election/Performance_tables/Election_performance_metrics.xlsx
+++ b/Task1_Election/Performance_tables/Election_performance_metrics.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miklo\PycharmProjects\PMP\Task1_Election\Performance_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8587EB-A1F1-480E-B13E-DAAAA8A0A4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3816118D-D01D-402A-8961-4C4A5C93C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$397</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="58">
   <si>
     <t>Annualized avg returns</t>
   </si>
@@ -141,6 +144,60 @@
   <si>
     <t>DTE.DE</t>
   </si>
+  <si>
+    <t>Dutch market</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Semiconductor</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>German market</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>French market</t>
+  </si>
+  <si>
+    <t>Italian market</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Spanish market</t>
+  </si>
+  <si>
+    <t>Luxury goods</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>European market</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,13 +248,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N397"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,9 +595,10 @@
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +641,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.34947026299024148</v>
       </c>
@@ -613,8 +688,11 @@
       <c r="N2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.62753289512624011</v>
       </c>
@@ -657,8 +735,11 @@
       <c r="N3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2184723411652022</v>
       </c>
@@ -701,8 +782,11 @@
       <c r="N4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2.8183293083915189E-2</v>
       </c>
@@ -745,8 +829,11 @@
       <c r="N5">
         <v>2016</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.27732393164473729</v>
       </c>
@@ -789,8 +876,11 @@
       <c r="N6">
         <v>2016</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.1668401672524176</v>
       </c>
@@ -833,8 +923,11 @@
       <c r="N7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.25162730588970211</v>
       </c>
@@ -877,8 +970,11 @@
       <c r="N8">
         <v>2012</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.20005418077628459</v>
       </c>
@@ -921,8 +1017,11 @@
       <c r="N9">
         <v>2012</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.21455569229664759</v>
       </c>
@@ -965,8 +1064,11 @@
       <c r="N10">
         <v>2012</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-0.80879128485340823</v>
       </c>
@@ -1009,8 +1111,11 @@
       <c r="N11">
         <v>2008</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.73947864611888658</v>
       </c>
@@ -1053,8 +1158,11 @@
       <c r="N12">
         <v>2008</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.63712017401003829</v>
       </c>
@@ -1097,8 +1205,11 @@
       <c r="N13">
         <v>2008</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1141,8 +1252,11 @@
       <c r="N14">
         <v>2004</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1185,8 +1299,11 @@
       <c r="N15">
         <v>2004</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1229,8 +1346,11 @@
       <c r="N16">
         <v>2004</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1273,8 +1393,11 @@
       <c r="N17">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1317,8 +1440,11 @@
       <c r="N18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1361,8 +1487,11 @@
       <c r="N19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.2238408378788051</v>
       </c>
@@ -1405,8 +1534,11 @@
       <c r="N20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.55336404752627721</v>
       </c>
@@ -1449,8 +1581,11 @@
       <c r="N21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.23135339267696289</v>
       </c>
@@ -1493,8 +1628,11 @@
       <c r="N22">
         <v>2020</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.14292312633480461</v>
       </c>
@@ -1537,8 +1675,11 @@
       <c r="N23">
         <v>2016</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.32352212646806772</v>
       </c>
@@ -1581,8 +1722,11 @@
       <c r="N24">
         <v>2016</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.1232968383130547</v>
       </c>
@@ -1625,8 +1769,11 @@
       <c r="N25">
         <v>2016</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.1239936282251077</v>
       </c>
@@ -1669,8 +1816,11 @@
       <c r="N26">
         <v>2012</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.1707464135009609</v>
       </c>
@@ -1713,8 +1863,11 @@
       <c r="N27">
         <v>2012</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.14333745376657181</v>
       </c>
@@ -1757,8 +1910,11 @@
       <c r="N28">
         <v>2012</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.7695224123130382</v>
       </c>
@@ -1801,8 +1957,11 @@
       <c r="N29">
         <v>2008</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.77129095775833034</v>
       </c>
@@ -1845,8 +2004,11 @@
       <c r="N30">
         <v>2008</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-0.6548479100412955</v>
       </c>
@@ -1889,8 +2051,11 @@
       <c r="N31">
         <v>2008</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.4833904892925435E-2</v>
       </c>
@@ -1933,8 +2098,11 @@
       <c r="N32">
         <v>2004</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.23111171641427039</v>
       </c>
@@ -1977,8 +2145,11 @@
       <c r="N33">
         <v>2004</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.1839911941392911</v>
       </c>
@@ -2021,8 +2192,11 @@
       <c r="N34">
         <v>2004</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2065,8 +2239,11 @@
       <c r="N35">
         <v>2000</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2109,8 +2286,11 @@
       <c r="N36">
         <v>2000</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2153,8 +2333,11 @@
       <c r="N37">
         <v>2000</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-0.31881738534874732</v>
       </c>
@@ -2197,8 +2380,11 @@
       <c r="N38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.62317060351970166</v>
       </c>
@@ -2241,8 +2427,11 @@
       <c r="N39">
         <v>2020</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.23772769589986931</v>
       </c>
@@ -2285,8 +2474,11 @@
       <c r="N40">
         <v>2020</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-5.6054055065709818E-2</v>
       </c>
@@ -2329,8 +2521,11 @@
       <c r="N41">
         <v>2016</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.20405861469133321</v>
       </c>
@@ -2373,8 +2568,11 @@
       <c r="N42">
         <v>2016</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.1130593088740672</v>
       </c>
@@ -2417,8 +2615,11 @@
       <c r="N43">
         <v>2016</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2461,8 +2662,11 @@
       <c r="N44">
         <v>2012</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2505,8 +2709,11 @@
       <c r="N45">
         <v>2012</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2549,8 +2756,11 @@
       <c r="N46">
         <v>2012</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2593,8 +2803,11 @@
       <c r="N47">
         <v>2008</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -2637,8 +2850,11 @@
       <c r="N48">
         <v>2008</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2681,8 +2897,11 @@
       <c r="N49">
         <v>2008</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2725,8 +2944,11 @@
       <c r="N50">
         <v>2004</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -2769,8 +2991,11 @@
       <c r="N51">
         <v>2004</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -2813,8 +3038,11 @@
       <c r="N52">
         <v>2004</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2857,8 +3085,11 @@
       <c r="N53">
         <v>2000</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2901,8 +3132,11 @@
       <c r="N54">
         <v>2000</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -2945,8 +3179,11 @@
       <c r="N55">
         <v>2000</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.21598797354549201</v>
       </c>
@@ -2989,8 +3226,11 @@
       <c r="N56">
         <v>2020</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.60756657153776494</v>
       </c>
@@ -3033,8 +3273,11 @@
       <c r="N57">
         <v>2020</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.27843151626532031</v>
       </c>
@@ -3077,8 +3320,11 @@
       <c r="N58">
         <v>2020</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.5483472776686281E-2</v>
       </c>
@@ -3121,8 +3367,11 @@
       <c r="N59">
         <v>2016</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.2420808715388601</v>
       </c>
@@ -3165,8 +3414,11 @@
       <c r="N60">
         <v>2016</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.1505326724696012</v>
       </c>
@@ -3209,8 +3461,11 @@
       <c r="N61">
         <v>2016</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.12066317461387931</v>
       </c>
@@ -3253,8 +3508,11 @@
       <c r="N62">
         <v>2012</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.26363810641397029</v>
       </c>
@@ -3297,8 +3555,11 @@
       <c r="N63">
         <v>2012</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.17914858865241451</v>
       </c>
@@ -3341,8 +3602,11 @@
       <c r="N64">
         <v>2012</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-0.64431215153504251</v>
       </c>
@@ -3385,8 +3649,11 @@
       <c r="N65">
         <v>2008</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.7613368323379478</v>
       </c>
@@ -3429,8 +3696,11 @@
       <c r="N66">
         <v>2008</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.57680947680134409</v>
       </c>
@@ -3473,8 +3743,11 @@
       <c r="N67">
         <v>2008</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9.8807976130551936E-2</v>
       </c>
@@ -3517,8 +3790,11 @@
       <c r="N68">
         <v>2004</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.17927374433325349</v>
       </c>
@@ -3561,8 +3837,11 @@
       <c r="N69">
         <v>2004</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.16773349856100839</v>
       </c>
@@ -3605,8 +3884,11 @@
       <c r="N70">
         <v>2004</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-5.5437058255844281E-2</v>
       </c>
@@ -3649,8 +3931,11 @@
       <c r="N71">
         <v>2000</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.32823425239637799</v>
       </c>
@@ -3693,8 +3978,11 @@
       <c r="N72">
         <v>2000</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.19058408729909851</v>
       </c>
@@ -3737,8 +4025,11 @@
       <c r="N73">
         <v>2000</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.28153643554302599</v>
       </c>
@@ -3781,8 +4072,11 @@
       <c r="N74">
         <v>2020</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.64013289457467648</v>
       </c>
@@ -3825,8 +4119,11 @@
       <c r="N75">
         <v>2020</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.27932087844946241</v>
       </c>
@@ -3869,8 +4166,11 @@
       <c r="N76">
         <v>2020</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-8.6721850694207347E-2</v>
       </c>
@@ -3913,8 +4213,11 @@
       <c r="N77">
         <v>2016</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.42889407877136698</v>
       </c>
@@ -3957,8 +4260,11 @@
       <c r="N78">
         <v>2016</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.2298067338450365</v>
       </c>
@@ -4001,8 +4307,11 @@
       <c r="N79">
         <v>2016</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.40608213604665527</v>
       </c>
@@ -4045,8 +4354,11 @@
       <c r="N80">
         <v>2012</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.28971317589186668</v>
       </c>
@@ -4089,8 +4401,11 @@
       <c r="N81">
         <v>2012</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.33311991041120392</v>
       </c>
@@ -4133,8 +4448,11 @@
       <c r="N82">
         <v>2012</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.89952770487084388</v>
       </c>
@@ -4177,8 +4495,11 @@
       <c r="N83">
         <v>2008</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-1.0374226598331691</v>
       </c>
@@ -4221,8 +4542,11 @@
       <c r="N84">
         <v>2008</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.79040180094656987</v>
       </c>
@@ -4265,8 +4589,11 @@
       <c r="N85">
         <v>2008</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.18076043485471249</v>
       </c>
@@ -4309,8 +4636,11 @@
       <c r="N86">
         <v>2004</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.31713353752260132</v>
       </c>
@@ -4353,8 +4683,11 @@
       <c r="N87">
         <v>2004</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.27109334273611418</v>
       </c>
@@ -4397,8 +4730,11 @@
       <c r="N88">
         <v>2004</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9.9391515523484658E-2</v>
       </c>
@@ -4441,8 +4777,11 @@
       <c r="N89">
         <v>2000</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-0.37824498146762447</v>
       </c>
@@ -4485,8 +4824,11 @@
       <c r="N90">
         <v>2000</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.11922231621476249</v>
       </c>
@@ -4529,8 +4871,11 @@
       <c r="N91">
         <v>2000</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.42380337523382711</v>
       </c>
@@ -4573,8 +4918,11 @@
       <c r="N92">
         <v>2020</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.79405268910980642</v>
       </c>
@@ -4617,8 +4965,11 @@
       <c r="N93">
         <v>2020</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.71775041737890344</v>
       </c>
@@ -4661,8 +5012,11 @@
       <c r="N94">
         <v>2020</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -4705,8 +5059,11 @@
       <c r="N95">
         <v>2016</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -4749,8 +5106,11 @@
       <c r="N96">
         <v>2016</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -4793,8 +5153,11 @@
       <c r="N97">
         <v>2016</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -4837,8 +5200,11 @@
       <c r="N98">
         <v>2012</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -4881,8 +5247,11 @@
       <c r="N99">
         <v>2012</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -4925,8 +5294,11 @@
       <c r="N100">
         <v>2012</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -4969,8 +5341,11 @@
       <c r="N101">
         <v>2008</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -5013,8 +5388,11 @@
       <c r="N102">
         <v>2008</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -5057,8 +5435,11 @@
       <c r="N103">
         <v>2008</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -5101,8 +5482,11 @@
       <c r="N104">
         <v>2004</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -5145,8 +5529,11 @@
       <c r="N105">
         <v>2004</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -5189,8 +5576,11 @@
       <c r="N106">
         <v>2004</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -5233,8 +5623,11 @@
       <c r="N107">
         <v>2000</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -5277,8 +5670,11 @@
       <c r="N108">
         <v>2000</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -5321,8 +5717,11 @@
       <c r="N109">
         <v>2000</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-0.1575976240732197</v>
       </c>
@@ -5365,8 +5764,11 @@
       <c r="N110">
         <v>2020</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.6649844379655323</v>
       </c>
@@ -5409,8 +5811,11 @@
       <c r="N111">
         <v>2020</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.32123480496305301</v>
       </c>
@@ -5453,8 +5858,11 @@
       <c r="N112">
         <v>2020</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>-6.7897318599486861E-2</v>
       </c>
@@ -5497,8 +5905,11 @@
       <c r="N113">
         <v>2016</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.29241704652642853</v>
       </c>
@@ -5541,8 +5952,11 @@
       <c r="N114">
         <v>2016</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0.15293712786648681</v>
       </c>
@@ -5585,8 +5999,11 @@
       <c r="N115">
         <v>2016</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9.3670653009134158E-2</v>
       </c>
@@ -5629,8 +6046,11 @@
       <c r="N116">
         <v>2012</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0.1369540648199836</v>
       </c>
@@ -5673,8 +6093,11 @@
       <c r="N117">
         <v>2012</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0.1119315523281121</v>
       </c>
@@ -5717,8 +6140,11 @@
       <c r="N118">
         <v>2012</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>-1.321114022232639</v>
       </c>
@@ -5761,8 +6187,11 @@
       <c r="N119">
         <v>2008</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>-0.4902383364501669</v>
       </c>
@@ -5805,8 +6234,11 @@
       <c r="N120">
         <v>2008</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>-0.72822148628822847</v>
       </c>
@@ -5849,8 +6281,11 @@
       <c r="N121">
         <v>2008</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6.5182388680036313E-2</v>
       </c>
@@ -5893,8 +6328,11 @@
       <c r="N122">
         <v>2004</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.33889093439296458</v>
       </c>
@@ -5937,8 +6375,11 @@
       <c r="N123">
         <v>2004</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0.22207856922233191</v>
       </c>
@@ -5981,8 +6422,11 @@
       <c r="N124">
         <v>2004</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4.5886746394520533E-2</v>
       </c>
@@ -6025,8 +6469,11 @@
       <c r="N125">
         <v>2000</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>-0.32428176873918851</v>
       </c>
@@ -6069,8 +6516,11 @@
       <c r="N126">
         <v>2000</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>-0.13386034729963339</v>
       </c>
@@ -6113,8 +6563,11 @@
       <c r="N127">
         <v>2000</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0.34150883968889212</v>
       </c>
@@ -6157,8 +6610,11 @@
       <c r="N128">
         <v>2020</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.0412947306235789</v>
       </c>
@@ -6201,8 +6657,11 @@
       <c r="N129">
         <v>2020</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.71012888532721274</v>
       </c>
@@ -6245,8 +6704,11 @@
       <c r="N130">
         <v>2020</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0.26142907470642829</v>
       </c>
@@ -6289,8 +6751,11 @@
       <c r="N131">
         <v>2016</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0.42403248845254038</v>
       </c>
@@ -6333,8 +6798,11 @@
       <c r="N132">
         <v>2016</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0.3904509998156972</v>
       </c>
@@ -6377,8 +6845,11 @@
       <c r="N133">
         <v>2016</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2.3289975276505639E-2</v>
       </c>
@@ -6421,8 +6892,11 @@
       <c r="N134">
         <v>2012</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0.20718235367661761</v>
       </c>
@@ -6465,8 +6939,11 @@
       <c r="N135">
         <v>2012</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9.5878718095316895E-2</v>
       </c>
@@ -6509,8 +6986,11 @@
       <c r="N136">
         <v>2012</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>-0.98581712001877175</v>
       </c>
@@ -6553,8 +7033,11 @@
       <c r="N137">
         <v>2008</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>-0.99499235906208394</v>
       </c>
@@ -6597,8 +7080,11 @@
       <c r="N138">
         <v>2008</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>-0.78837756039787932</v>
       </c>
@@ -6641,8 +7127,11 @@
       <c r="N139">
         <v>2008</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>-0.14752530222907859</v>
       </c>
@@ -6685,8 +7174,11 @@
       <c r="N140">
         <v>2004</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>-8.1276209834759867E-3</v>
       </c>
@@ -6729,8 +7221,11 @@
       <c r="N141">
         <v>2004</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>-3.867429077692712E-2</v>
       </c>
@@ -6773,8 +7268,11 @@
       <c r="N142">
         <v>2004</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>-0.3166678167546671</v>
       </c>
@@ -6817,8 +7315,11 @@
       <c r="N143">
         <v>2000</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>-0.81881118295193778</v>
       </c>
@@ -6861,8 +7362,11 @@
       <c r="N144">
         <v>2000</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>-0.57637981681047956</v>
       </c>
@@ -6905,8 +7409,11 @@
       <c r="N145">
         <v>2000</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>-0.84897786876742531</v>
       </c>
@@ -6949,8 +7456,11 @@
       <c r="N146">
         <v>2020</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1.0035835526474559</v>
       </c>
@@ -6993,8 +7503,11 @@
       <c r="N147">
         <v>2020</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0.21296329211679099</v>
       </c>
@@ -7037,8 +7550,11 @@
       <c r="N148">
         <v>2020</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>-5.5691773837779353E-2</v>
       </c>
@@ -7081,8 +7597,11 @@
       <c r="N149">
         <v>2016</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.31181437437951642</v>
       </c>
@@ -7125,8 +7644,11 @@
       <c r="N150">
         <v>2016</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0.17552848990093689</v>
       </c>
@@ -7169,8 +7691,11 @@
       <c r="N151">
         <v>2016</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7.2392383157916823E-2</v>
       </c>
@@ -7213,8 +7738,11 @@
       <c r="N152">
         <v>2012</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6.1088649229374237E-2</v>
       </c>
@@ -7257,8 +7785,11 @@
       <c r="N153">
         <v>2012</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4.4445969303378068E-2</v>
       </c>
@@ -7301,8 +7832,11 @@
       <c r="N154">
         <v>2012</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>-0.2370741258305076</v>
       </c>
@@ -7345,8 +7879,11 @@
       <c r="N155">
         <v>2008</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>-0.31193409989191773</v>
       </c>
@@ -7389,8 +7926,11 @@
       <c r="N156">
         <v>2008</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>-0.19244595102601639</v>
       </c>
@@ -7433,8 +7973,11 @@
       <c r="N157">
         <v>2008</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8.8066054098181079E-2</v>
       </c>
@@ -7477,8 +8020,11 @@
       <c r="N158">
         <v>2004</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8.6241748114689321E-2</v>
       </c>
@@ -7521,8 +8067,11 @@
       <c r="N159">
         <v>2004</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>9.8776557314677021E-2</v>
       </c>
@@ -7565,8 +8114,11 @@
       <c r="N160">
         <v>2004</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>-4.3376698045711551E-3</v>
       </c>
@@ -7609,8 +8161,11 @@
       <c r="N161">
         <v>2000</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>-4.373973829588625E-3</v>
       </c>
@@ -7653,8 +8208,11 @@
       <c r="N162">
         <v>2000</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5.0024279325526742E-3</v>
       </c>
@@ -7697,8 +8255,11 @@
       <c r="N163">
         <v>2000</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3.5753363660868731E-2</v>
       </c>
@@ -7741,8 +8302,11 @@
       <c r="N164">
         <v>2020</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0.99087989805721033</v>
       </c>
@@ -7785,8 +8349,11 @@
       <c r="N165">
         <v>2020</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0.60242167330436036</v>
       </c>
@@ -7829,8 +8396,11 @@
       <c r="N166">
         <v>2020</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>-9.1445612571166901E-2</v>
       </c>
@@ -7873,8 +8443,11 @@
       <c r="N167">
         <v>2016</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0.58903231629112729</v>
       </c>
@@ -7917,8 +8490,11 @@
       <c r="N168">
         <v>2016</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0.2805091189059723</v>
       </c>
@@ -7961,8 +8537,11 @@
       <c r="N169">
         <v>2016</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0.33417574278258</v>
       </c>
@@ -8005,8 +8584,11 @@
       <c r="N170">
         <v>2012</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>-0.1069249835204306</v>
       </c>
@@ -8049,8 +8631,11 @@
       <c r="N171">
         <v>2012</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0.1280699421573783</v>
       </c>
@@ -8093,8 +8678,11 @@
       <c r="N172">
         <v>2012</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>-1.610907494904277</v>
       </c>
@@ -8137,8 +8725,11 @@
       <c r="N173">
         <v>2008</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>-0.36086008890698201</v>
       </c>
@@ -8181,8 +8772,11 @@
       <c r="N174">
         <v>2008</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>-0.82432881333661667</v>
       </c>
@@ -8225,8 +8819,11 @@
       <c r="N175">
         <v>2008</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5.6889897587962833E-2</v>
       </c>
@@ -8269,8 +8866,11 @@
       <c r="N176">
         <v>2004</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0.1222615007820958</v>
       </c>
@@ -8313,8 +8913,11 @@
       <c r="N177">
         <v>2004</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0.12979182132304271</v>
       </c>
@@ -8357,8 +8960,11 @@
       <c r="N178">
         <v>2004</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>-9.6411891354542534E-2</v>
       </c>
@@ -8401,8 +9007,11 @@
       <c r="N179">
         <v>2000</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0.15030958565879679</v>
       </c>
@@ -8445,8 +9054,11 @@
       <c r="N180">
         <v>2000</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>-5.2604852004124472E-2</v>
       </c>
@@ -8489,8 +9101,11 @@
       <c r="N181">
         <v>2000</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>-1.461048786961431</v>
       </c>
@@ -8533,8 +9148,11 @@
       <c r="N182">
         <v>2020</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0.61006999173670684</v>
       </c>
@@ -8577,8 +9195,11 @@
       <c r="N183">
         <v>2020</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>-0.3887101472754475</v>
       </c>
@@ -8621,8 +9242,11 @@
       <c r="N184">
         <v>2020</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>-3.5317165343267121E-3</v>
       </c>
@@ -8665,8 +9289,11 @@
       <c r="N185">
         <v>2016</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0.33939557366695922</v>
       </c>
@@ -8709,8 +9336,11 @@
       <c r="N186">
         <v>2016</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0.20230133098447961</v>
       </c>
@@ -8753,8 +9383,11 @@
       <c r="N187">
         <v>2016</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0.32153050238528769</v>
       </c>
@@ -8797,8 +9430,11 @@
       <c r="N188">
         <v>2012</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0.22010743950436479</v>
       </c>
@@ -8841,8 +9477,11 @@
       <c r="N189">
         <v>2012</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0.27666180473177449</v>
       </c>
@@ -8885,8 +9524,11 @@
       <c r="N190">
         <v>2012</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>-0.96334247310364618</v>
       </c>
@@ -8929,8 +9571,11 @@
       <c r="N191">
         <v>2008</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>-7.2137447158743137E-2</v>
       </c>
@@ -8973,8 +9618,11 @@
       <c r="N192">
         <v>2008</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>-0.39317059923828213</v>
       </c>
@@ -9017,8 +9665,11 @@
       <c r="N193">
         <v>2008</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8.0298832481374011E-2</v>
       </c>
@@ -9061,8 +9712,11 @@
       <c r="N194">
         <v>2004</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>-0.49969035129275491</v>
       </c>
@@ -9105,8 +9759,11 @@
       <c r="N195">
         <v>2004</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>-0.1804214353401862</v>
       </c>
@@ -9149,8 +9806,11 @@
       <c r="N196">
         <v>2004</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9.6417058646237244E-2</v>
       </c>
@@ -9193,8 +9853,11 @@
       <c r="N197">
         <v>2000</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>-0.45000213382333337</v>
       </c>
@@ -9237,8 +9900,11 @@
       <c r="N198">
         <v>2000</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>-0.17477364049818531</v>
       </c>
@@ -9281,8 +9947,11 @@
       <c r="N199">
         <v>2000</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>-0.68693583045377649</v>
       </c>
@@ -9325,8 +9994,11 @@
       <c r="N200">
         <v>2020</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0.77544713404166943</v>
       </c>
@@ -9369,8 +10041,11 @@
       <c r="N201">
         <v>2020</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0.16354246974818229</v>
       </c>
@@ -9413,8 +10088,11 @@
       <c r="N202">
         <v>2020</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0.20380567627034199</v>
       </c>
@@ -9457,8 +10135,11 @@
       <c r="N203">
         <v>2016</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>0.41237183970670932</v>
       </c>
@@ -9501,8 +10182,11 @@
       <c r="N204">
         <v>2016</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0.37183515170868942</v>
       </c>
@@ -9545,8 +10229,11 @@
       <c r="N205">
         <v>2016</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0.49966149837671292</v>
       </c>
@@ -9589,8 +10276,11 @@
       <c r="N206">
         <v>2012</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>0.3263341397116345</v>
       </c>
@@ -9633,8 +10323,11 @@
       <c r="N207">
         <v>2012</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>0.42372792404674131</v>
       </c>
@@ -9677,8 +10370,11 @@
       <c r="N208">
         <v>2012</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>-2.042788384091653</v>
       </c>
@@ -9721,8 +10417,11 @@
       <c r="N209">
         <v>2008</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9.6201663745036137E-2</v>
       </c>
@@ -9765,8 +10464,11 @@
       <c r="N210">
         <v>2008</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>-0.62813141630232328</v>
       </c>
@@ -9809,8 +10511,11 @@
       <c r="N211">
         <v>2008</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0.23672359902268311</v>
       </c>
@@ -9853,8 +10558,11 @@
       <c r="N212">
         <v>2004</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0.26099560049210507</v>
       </c>
@@ -9897,8 +10605,11 @@
       <c r="N213">
         <v>2004</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0.29536216220374423</v>
       </c>
@@ -9941,8 +10652,11 @@
       <c r="N214">
         <v>2004</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0.17582893183525081</v>
       </c>
@@ -9985,8 +10699,11 @@
       <c r="N215">
         <v>2000</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>-0.24590060259457269</v>
       </c>
@@ -10029,8 +10746,11 @@
       <c r="N216">
         <v>2000</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>-5.9334574598681349E-2</v>
       </c>
@@ -10073,8 +10793,11 @@
       <c r="N217">
         <v>2000</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>-0.58448511676989867</v>
       </c>
@@ -10117,8 +10840,11 @@
       <c r="N218">
         <v>2020</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>-0.1234410833550319</v>
       </c>
@@ -10161,8 +10887,11 @@
       <c r="N219">
         <v>2020</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>-0.24340317983537621</v>
       </c>
@@ -10205,8 +10934,11 @@
       <c r="N220">
         <v>2020</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>-2.4470809698030681E-2</v>
       </c>
@@ -10249,8 +10981,11 @@
       <c r="N221">
         <v>2016</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0.17853767923428601</v>
       </c>
@@ -10293,8 +11028,11 @@
       <c r="N222">
         <v>2016</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>0.11171125517475609</v>
       </c>
@@ -10337,8 +11075,11 @@
       <c r="N223">
         <v>2016</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0.17491306815914279</v>
       </c>
@@ -10381,8 +11122,11 @@
       <c r="N224">
         <v>2012</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>9.0694308756506734E-2</v>
       </c>
@@ -10425,8 +11169,11 @@
       <c r="N225">
         <v>2012</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>0.13280341232931289</v>
       </c>
@@ -10469,8 +11216,11 @@
       <c r="N226">
         <v>2012</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0.48913803983444859</v>
       </c>
@@ -10513,8 +11263,11 @@
       <c r="N227">
         <v>2008</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>-0.2204022453503317</v>
       </c>
@@ -10557,8 +11310,11 @@
       <c r="N228">
         <v>2008</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0.13186517067549841</v>
       </c>
@@ -10601,8 +11357,11 @@
       <c r="N229">
         <v>2008</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0.1544664079848001</v>
       </c>
@@ -10645,8 +11404,11 @@
       <c r="N230">
         <v>2004</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>-0.13028457738507529</v>
       </c>
@@ -10689,8 +11451,11 @@
       <c r="N231">
         <v>2004</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>6.7680148657444261E-2</v>
       </c>
@@ -10733,8 +11498,11 @@
       <c r="N232">
         <v>2004</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>0.42782290934117362</v>
       </c>
@@ -10777,8 +11545,11 @@
       <c r="N233">
         <v>2000</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3.9037134386091951E-2</v>
       </c>
@@ -10821,8 +11592,11 @@
       <c r="N234">
         <v>2000</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>0.21320706656456359</v>
       </c>
@@ -10865,8 +11639,11 @@
       <c r="N235">
         <v>2000</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2.6138925859403039E-2</v>
       </c>
@@ -10909,8 +11686,11 @@
       <c r="N236">
         <v>2020</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1.282505272901465</v>
       </c>
@@ -10953,8 +11733,11 @@
       <c r="N237">
         <v>2020</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0.75368694956083482</v>
       </c>
@@ -10997,8 +11780,11 @@
       <c r="N238">
         <v>2020</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0.14217673042934839</v>
       </c>
@@ -11041,8 +11827,11 @@
       <c r="N239">
         <v>2016</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0.70969647398094071</v>
       </c>
@@ -11085,8 +11874,11 @@
       <c r="N240">
         <v>2016</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0.45327091011003889</v>
       </c>
@@ -11129,8 +11921,11 @@
       <c r="N241">
         <v>2016</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>-0.39745942123079048</v>
       </c>
@@ -11173,8 +11968,11 @@
       <c r="N242">
         <v>2012</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1.058779980912121</v>
       </c>
@@ -11217,8 +12015,11 @@
       <c r="N243">
         <v>2012</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0.30133616587181389</v>
       </c>
@@ -11261,8 +12062,11 @@
       <c r="N244">
         <v>2012</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>0.46915098750498541</v>
       </c>
@@ -11305,8 +12109,11 @@
       <c r="N245">
         <v>2008</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4.2650890673141956E-3</v>
       </c>
@@ -11349,8 +12156,11 @@
       <c r="N246">
         <v>2008</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0.41544170686452758</v>
       </c>
@@ -11393,8 +12203,11 @@
       <c r="N247">
         <v>2008</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>-2.3655840694384821E-2</v>
       </c>
@@ -11437,8 +12250,11 @@
       <c r="N248">
         <v>2004</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0.17016827251306049</v>
       </c>
@@ -11481,8 +12297,11 @@
       <c r="N249">
         <v>2004</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0.1199391544371687</v>
       </c>
@@ -11525,8 +12344,11 @@
       <c r="N250">
         <v>2004</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -11569,8 +12391,11 @@
       <c r="N251">
         <v>2000</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -11613,8 +12438,11 @@
       <c r="N252">
         <v>2000</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -11657,8 +12485,11 @@
       <c r="N253">
         <v>2000</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5.8545806511118299E-2</v>
       </c>
@@ -11701,8 +12532,11 @@
       <c r="N254">
         <v>2020</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1.4970186345840091</v>
       </c>
@@ -11745,8 +12579,11 @@
       <c r="N255">
         <v>2020</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0.8000572321614825</v>
       </c>
@@ -11789,8 +12626,11 @@
       <c r="N256">
         <v>2020</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>-0.24194894167679329</v>
       </c>
@@ -11833,8 +12673,11 @@
       <c r="N257">
         <v>2016</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>0.80107252735714263</v>
       </c>
@@ -11877,8 +12720,11 @@
       <c r="N258">
         <v>2016</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>0.31744687535154531</v>
       </c>
@@ -11921,8 +12767,11 @@
       <c r="N259">
         <v>2016</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>-7.6240063288857393E-2</v>
       </c>
@@ -11965,8 +12814,11 @@
       <c r="N260">
         <v>2012</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2.2929554084742069E-2</v>
       </c>
@@ -12009,8 +12861,11 @@
       <c r="N261">
         <v>2012</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>-3.5820275869287328E-3</v>
       </c>
@@ -12053,8 +12908,11 @@
       <c r="N262">
         <v>2012</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>-9.8666341227465482E-2</v>
       </c>
@@ -12097,8 +12955,11 @@
       <c r="N263">
         <v>2008</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>-0.25803565102274528</v>
       </c>
@@ -12141,8 +13002,11 @@
       <c r="N264">
         <v>2008</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>-3.1056567645260959E-2</v>
       </c>
@@ -12185,8 +13049,11 @@
       <c r="N265">
         <v>2008</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>-9.7435097309801794E-2</v>
       </c>
@@ -12229,8 +13096,11 @@
       <c r="N266">
         <v>2004</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>0.5058243186334308</v>
       </c>
@@ -12273,8 +13143,11 @@
       <c r="N267">
         <v>2004</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>0.21031780358160901</v>
       </c>
@@ -12317,8 +13190,11 @@
       <c r="N268">
         <v>2004</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>-0.16953183660263799</v>
       </c>
@@ -12361,8 +13237,11 @@
       <c r="N269">
         <v>2000</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>-0.3384587759118648</v>
       </c>
@@ -12405,8 +13284,11 @@
       <c r="N270">
         <v>2000</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>-0.32292581954399768</v>
       </c>
@@ -12449,8 +13331,11 @@
       <c r="N271">
         <v>2000</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>-0.60718831982441579</v>
       </c>
@@ -12493,8 +13378,11 @@
       <c r="N272">
         <v>2020</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1.046336351668379</v>
       </c>
@@ -12537,8 +13425,11 @@
       <c r="N273">
         <v>2020</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0.41242293578200601</v>
       </c>
@@ -12581,8 +13472,11 @@
       <c r="N274">
         <v>2020</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>0.55003127028536225</v>
       </c>
@@ -12625,8 +13519,11 @@
       <c r="N275">
         <v>2016</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>0.33115082896425019</v>
       </c>
@@ -12669,8 +13566,11 @@
       <c r="N276">
         <v>2016</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0.52793267795731147</v>
       </c>
@@ -12713,8 +13613,11 @@
       <c r="N277">
         <v>2016</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>0.6777745244202672</v>
       </c>
@@ -12757,8 +13660,11 @@
       <c r="N278">
         <v>2012</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0.67382303852765235</v>
       </c>
@@ -12801,8 +13707,11 @@
       <c r="N279">
         <v>2012</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0.67329755942073399</v>
       </c>
@@ -12845,8 +13754,11 @@
       <c r="N280">
         <v>2012</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>3.3744344967418627E-2</v>
       </c>
@@ -12889,8 +13801,11 @@
       <c r="N281">
         <v>2008</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>-2.638565932241256</v>
       </c>
@@ -12933,8 +13848,11 @@
       <c r="N282">
         <v>2008</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>-1.1721593503469421</v>
       </c>
@@ -12977,8 +13895,11 @@
       <c r="N283">
         <v>2008</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>0.38671359787167348</v>
       </c>
@@ -13021,8 +13942,11 @@
       <c r="N284">
         <v>2004</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>0.11487953379459689</v>
       </c>
@@ -13065,8 +13989,11 @@
       <c r="N285">
         <v>2004</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>0.27464874800354938</v>
       </c>
@@ -13109,8 +14036,11 @@
       <c r="N286">
         <v>2004</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>-0.13604918834452021</v>
       </c>
@@ -13153,8 +14083,11 @@
       <c r="N287">
         <v>2000</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>-0.107897867403738</v>
       </c>
@@ -13197,8 +14130,11 @@
       <c r="N288">
         <v>2000</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>-0.1484324895793816</v>
       </c>
@@ -13241,8 +14177,11 @@
       <c r="N289">
         <v>2000</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>-4.9887883694692291E-2</v>
       </c>
@@ -13285,8 +14224,11 @@
       <c r="N290">
         <v>2020</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>0.81211109717694097</v>
       </c>
@@ -13329,8 +14271,11 @@
       <c r="N291">
         <v>2020</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>0.57282952144245436</v>
       </c>
@@ -13373,8 +14318,11 @@
       <c r="N292">
         <v>2020</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O292" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0.54762270887709807</v>
       </c>
@@ -13417,8 +14365,11 @@
       <c r="N293">
         <v>2016</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O293" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0.42576604770508902</v>
       </c>
@@ -13461,8 +14412,11 @@
       <c r="N294">
         <v>2016</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O294" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>0.54301611029597008</v>
       </c>
@@ -13505,8 +14459,11 @@
       <c r="N295">
         <v>2016</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O295" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0.94330151349756131</v>
       </c>
@@ -13549,8 +14506,11 @@
       <c r="N296">
         <v>2012</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O296" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>9.3864378754282107E-2</v>
       </c>
@@ -13593,8 +14553,11 @@
       <c r="N297">
         <v>2012</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O297" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0.48581548280584469</v>
       </c>
@@ -13637,8 +14600,11 @@
       <c r="N298">
         <v>2012</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O298" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>-3.1097205182998762</v>
       </c>
@@ -13681,8 +14647,11 @@
       <c r="N299">
         <v>2008</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O299" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>-0.75836618670359501</v>
       </c>
@@ -13725,8 +14694,11 @@
       <c r="N300">
         <v>2008</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O300" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>-1.435972980162147</v>
       </c>
@@ -13769,8 +14741,11 @@
       <c r="N301">
         <v>2008</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O301" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0.36866482440201681</v>
       </c>
@@ -13813,8 +14788,11 @@
       <c r="N302">
         <v>2004</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O302" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0.2252269395715123</v>
       </c>
@@ -13857,8 +14835,11 @@
       <c r="N303">
         <v>2004</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O303" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>0.31865738778172781</v>
       </c>
@@ -13901,8 +14882,11 @@
       <c r="N304">
         <v>2004</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O304" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>0.57970308714680696</v>
       </c>
@@ -13945,8 +14929,11 @@
       <c r="N305">
         <v>2000</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O305" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>-5.7686666125431801E-2</v>
       </c>
@@ -13989,8 +14976,11 @@
       <c r="N306">
         <v>2000</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O306" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>0.23751800409745771</v>
       </c>
@@ -14033,8 +15023,11 @@
       <c r="N307">
         <v>2000</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O307" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>-0.5180690454830531</v>
       </c>
@@ -14077,8 +15070,11 @@
       <c r="N308">
         <v>2020</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O308" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>0.56726786684600783</v>
       </c>
@@ -14121,8 +15117,11 @@
       <c r="N309">
         <v>2020</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O309" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>0.12113778718284179</v>
       </c>
@@ -14165,8 +15164,11 @@
       <c r="N310">
         <v>2020</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O310" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>-0.24200460361922849</v>
       </c>
@@ -14209,8 +15211,11 @@
       <c r="N311">
         <v>2016</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O311" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2.9168537825313111E-2</v>
       </c>
@@ -14253,8 +15258,11 @@
       <c r="N312">
         <v>2016</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O312" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>-7.8216570860332749E-2</v>
       </c>
@@ -14297,8 +15305,11 @@
       <c r="N313">
         <v>2016</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O313" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0.88788721564619388</v>
       </c>
@@ -14341,8 +15352,11 @@
       <c r="N314">
         <v>2012</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O314" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>0.2298497854758921</v>
       </c>
@@ -14385,8 +15399,11 @@
       <c r="N315">
         <v>2012</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O315" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>0.52093034045397735</v>
       </c>
@@ -14429,8 +15446,11 @@
       <c r="N316">
         <v>2012</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O316" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>-0.37519477664279011</v>
       </c>
@@ -14473,8 +15493,11 @@
       <c r="N317">
         <v>2008</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O317" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>-0.92436497026769981</v>
       </c>
@@ -14517,8 +15540,11 @@
       <c r="N318">
         <v>2008</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O318" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>-0.43562600575501198</v>
       </c>
@@ -14561,8 +15587,11 @@
       <c r="N319">
         <v>2008</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O319" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>0.32344531688403039</v>
       </c>
@@ -14605,8 +15634,11 @@
       <c r="N320">
         <v>2004</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O320" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>6.8869885310434503E-2</v>
       </c>
@@ -14649,8 +15681,11 @@
       <c r="N321">
         <v>2004</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O321" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>0.2060056992575923</v>
       </c>
@@ -14693,8 +15728,11 @@
       <c r="N322">
         <v>2004</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O322" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>6.8283102048488697E-2</v>
       </c>
@@ -14737,8 +15775,11 @@
       <c r="N323">
         <v>2000</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O323" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>-0.28407302154682679</v>
       </c>
@@ -14781,8 +15822,11 @@
       <c r="N324">
         <v>2000</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O324" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>-0.13329691064254359</v>
       </c>
@@ -14825,8 +15869,11 @@
       <c r="N325">
         <v>2000</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O325" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>-0.6873811629209764</v>
       </c>
@@ -14869,8 +15916,11 @@
       <c r="N326">
         <v>2020</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O326" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0.84850529923628371</v>
       </c>
@@ -14913,8 +15963,11 @@
       <c r="N327">
         <v>2020</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O327" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>0.22683489781086319</v>
       </c>
@@ -14957,8 +16010,11 @@
       <c r="N328">
         <v>2020</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O328" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>0.21464382497639489</v>
       </c>
@@ -15001,8 +16057,11 @@
       <c r="N329">
         <v>2016</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O329" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>6.3397647157233061E-2</v>
       </c>
@@ -15045,8 +16104,11 @@
       <c r="N330">
         <v>2016</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O330" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>0.26590583096098858</v>
       </c>
@@ -15089,8 +16151,11 @@
       <c r="N331">
         <v>2016</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O331" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>0.64531457714012852</v>
       </c>
@@ -15133,8 +16198,11 @@
       <c r="N332">
         <v>2012</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O332" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>0.54763439412822779</v>
       </c>
@@ -15177,8 +16245,11 @@
       <c r="N333">
         <v>2012</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O333" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>0.57112867083076979</v>
       </c>
@@ -15221,8 +16292,11 @@
       <c r="N334">
         <v>2012</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O334" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>-0.59242104292727804</v>
       </c>
@@ -15265,8 +16339,11 @@
       <c r="N335">
         <v>2008</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O335" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>-1.037422932764225</v>
       </c>
@@ -15309,8 +16386,11 @@
       <c r="N336">
         <v>2008</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O336" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>-0.56161791570757202</v>
       </c>
@@ -15353,8 +16433,11 @@
       <c r="N337">
         <v>2008</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O337" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0.1424043880779092</v>
       </c>
@@ -15397,8 +16480,11 @@
       <c r="N338">
         <v>2004</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O338" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.35886376135971981</v>
       </c>
@@ -15441,8 +16527,11 @@
       <c r="N339">
         <v>2004</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O339" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>0.2834422221638353</v>
       </c>
@@ -15485,8 +16574,11 @@
       <c r="N340">
         <v>2004</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O340" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>5.4321391347802048E-2</v>
       </c>
@@ -15529,8 +16621,11 @@
       <c r="N341">
         <v>2000</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O341" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3.034245351161256E-2</v>
       </c>
@@ -15573,8 +16668,11 @@
       <c r="N342">
         <v>2000</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O342" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>7.154002874344681E-2</v>
       </c>
@@ -15617,8 +16715,11 @@
       <c r="N343">
         <v>2000</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O343" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>0.25873196875082671</v>
       </c>
@@ -15661,8 +16762,11 @@
       <c r="N344">
         <v>2020</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O344" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>7.8819842515818639E-2</v>
       </c>
@@ -15705,8 +16809,11 @@
       <c r="N345">
         <v>2020</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O345" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>0.2593019006416612</v>
       </c>
@@ -15749,8 +16856,11 @@
       <c r="N346">
         <v>2020</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O346" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>0.5580358350549155</v>
       </c>
@@ -15793,8 +16903,11 @@
       <c r="N347">
         <v>2016</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O347" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>0.44514992224378541</v>
       </c>
@@ -15837,8 +16950,11 @@
       <c r="N348">
         <v>2016</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O348" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>0.53407177375087223</v>
       </c>
@@ -15881,8 +16997,11 @@
       <c r="N349">
         <v>2016</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O349" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>0.36845780631835989</v>
       </c>
@@ -15925,8 +17044,11 @@
       <c r="N350">
         <v>2012</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O350" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0.70910965443141638</v>
       </c>
@@ -15969,8 +17091,11 @@
       <c r="N351">
         <v>2012</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O351" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>0.51005841316689238</v>
       </c>
@@ -16013,8 +17138,11 @@
       <c r="N352">
         <v>2012</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O352" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>-1.0937071378422789</v>
       </c>
@@ -16057,8 +17185,11 @@
       <c r="N353">
         <v>2008</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O353" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>-0.76664328810488547</v>
       </c>
@@ -16101,8 +17232,11 @@
       <c r="N354">
         <v>2008</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O354" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>-0.84703739854651128</v>
       </c>
@@ -16145,8 +17279,11 @@
       <c r="N355">
         <v>2008</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O355" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>-0.32492882846504101</v>
       </c>
@@ -16189,8 +17326,11 @@
       <c r="N356">
         <v>2004</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O356" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0.35088389052587682</v>
       </c>
@@ -16233,8 +17373,11 @@
       <c r="N357">
         <v>2004</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O357" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2.8392665878482059E-2</v>
       </c>
@@ -16277,8 +17420,11 @@
       <c r="N358">
         <v>2004</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O358" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>-0.1060603313773965</v>
       </c>
@@ -16321,8 +17467,11 @@
       <c r="N359">
         <v>2000</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O359" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>0.38336277701942872</v>
       </c>
@@ -16365,8 +17514,11 @@
       <c r="N360">
         <v>2000</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O360" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>7.8684649581082636E-2</v>
       </c>
@@ -16409,8 +17561,11 @@
       <c r="N361">
         <v>2000</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O361" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>-0.19476497828085571</v>
       </c>
@@ -16453,8 +17608,11 @@
       <c r="N362">
         <v>2020</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O362" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>0.61280316723653216</v>
       </c>
@@ -16497,8 +17655,11 @@
       <c r="N363">
         <v>2020</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O363" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>0.24247197247933111</v>
       </c>
@@ -16541,8 +17702,11 @@
       <c r="N364">
         <v>2020</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O364" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>-0.36327368269320082</v>
       </c>
@@ -16585,8 +17749,11 @@
       <c r="N365">
         <v>2016</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O365" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>-3.7571359583010812E-2</v>
       </c>
@@ -16629,8 +17796,11 @@
       <c r="N366">
         <v>2016</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O366" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>-0.1752595421735495</v>
       </c>
@@ -16673,8 +17843,11 @@
       <c r="N367">
         <v>2016</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O367" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>0.29201518192476589</v>
       </c>
@@ -16717,8 +17890,11 @@
       <c r="N368">
         <v>2012</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O368" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>0.3646036376102898</v>
       </c>
@@ -16761,8 +17937,11 @@
       <c r="N369">
         <v>2012</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O369" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>0.32525469460887629</v>
       </c>
@@ -16805,8 +17984,11 @@
       <c r="N370">
         <v>2012</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O370" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>-0.44501397532317022</v>
       </c>
@@ -16849,8 +18031,11 @@
       <c r="N371">
         <v>2008</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O371" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>-0.60038947056985037</v>
       </c>
@@ -16893,8 +18078,11 @@
       <c r="N372">
         <v>2008</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O372" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>-0.43959567958031193</v>
       </c>
@@ -16937,8 +18125,11 @@
       <c r="N373">
         <v>2008</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O373" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>-0.16629094882960049</v>
       </c>
@@ -16981,8 +18172,11 @@
       <c r="N374">
         <v>2004</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O374" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.21196702608796811</v>
       </c>
@@ -17025,8 +18219,11 @@
       <c r="N375">
         <v>2004</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O375" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3.5629956410139843E-2</v>
       </c>
@@ -17069,8 +18266,11 @@
       <c r="N376">
         <v>2004</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O376" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>-8.6311919785233795E-2</v>
       </c>
@@ -17113,8 +18313,11 @@
       <c r="N377">
         <v>2000</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O377" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>-0.1188168516773753</v>
       </c>
@@ -17157,8 +18360,11 @@
       <c r="N378">
         <v>2000</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O378" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>-3.4897847216546443E-2</v>
       </c>
@@ -17201,8 +18407,11 @@
       <c r="N379">
         <v>2000</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O379" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>-0.37123714167144212</v>
       </c>
@@ -17245,8 +18454,11 @@
       <c r="N380">
         <v>2020</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O380" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>0.43502067438566722</v>
       </c>
@@ -17289,8 +18501,11 @@
       <c r="N381">
         <v>2020</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O381" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>9.1907947633152673E-2</v>
       </c>
@@ -17333,8 +18548,11 @@
       <c r="N382">
         <v>2020</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O382" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>-0.29660756247576048</v>
       </c>
@@ -17377,8 +18595,11 @@
       <c r="N383">
         <v>2016</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O383" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>0.30510203103526679</v>
       </c>
@@ -17421,8 +18642,11 @@
       <c r="N384">
         <v>2016</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O384" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>3.5016736713810073E-2</v>
       </c>
@@ -17465,8 +18689,11 @@
       <c r="N385">
         <v>2016</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O385" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>-0.26047350837889199</v>
       </c>
@@ -17509,8 +18736,11 @@
       <c r="N386">
         <v>2012</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O386" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>0.1064099268267653</v>
       </c>
@@ -17553,8 +18783,11 @@
       <c r="N387">
         <v>2012</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O387" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>-9.4842006449466748E-2</v>
       </c>
@@ -17597,8 +18830,11 @@
       <c r="N388">
         <v>2012</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O388" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>0.40720988051969342</v>
       </c>
@@ -17641,8 +18877,11 @@
       <c r="N389">
         <v>2008</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O389" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>-0.54746100032820211</v>
       </c>
@@ -17685,8 +18924,11 @@
       <c r="N390">
         <v>2008</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O390" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>-3.5638713604206229E-2</v>
       </c>
@@ -17729,8 +18971,11 @@
       <c r="N391">
         <v>2008</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O391" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>0.37149062880091788</v>
       </c>
@@ -17773,8 +19018,11 @@
       <c r="N392">
         <v>2004</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O392" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>0.32617552348097711</v>
       </c>
@@ -17817,8 +19065,11 @@
       <c r="N393">
         <v>2004</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O393" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>0.37268137193858519</v>
       </c>
@@ -17861,8 +19112,11 @@
       <c r="N394">
         <v>2004</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O394" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>-0.34800401093906419</v>
       </c>
@@ -17905,8 +19159,11 @@
       <c r="N395">
         <v>2000</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O395" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>-0.64169977146417323</v>
       </c>
@@ -17949,8 +19206,11 @@
       <c r="N396">
         <v>2000</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O396" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>-0.45727753481712607</v>
       </c>
@@ -17993,8 +19253,12 @@
       <c r="N397">
         <v>2000</v>
       </c>
+      <c r="O397" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O397" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>